--- a/Week_2/ChiTiet/Phung_PhacThaoChiTiet_Week2_Login.xlsx
+++ b/Week_2/ChiTiet/Phung_PhacThaoChiTiet_Week2_Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HocTap\MonThayThe\KyThuatLapTrinhHuongDoiTuong\tailieuthietke\tailieuchitiet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HocTap\MonThayThe\KyThuatLapTrinhHuongDoiTuong\Project\Coach-Ticket-Booking\Week_2\ChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8887BE1E-9C90-4BAF-9660-DB188EF2931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A6FBBD-F4E2-472F-993E-1C6F2806FD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="134">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -539,9 +539,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>Có thể</t>
     <phoneticPr fontId="0"/>
   </si>
@@ -611,9 +608,6 @@
     <t xml:space="preserve">Đăng nhập thành công </t>
   </si>
   <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
@@ -638,9 +632,6 @@
     <t>Mật khẩu *</t>
   </si>
   <si>
-    <t>"Vui lòng nhập thông tin này"</t>
-  </si>
-  <si>
     <t>1. Nhấn textview "khôi phục" để chuyển sang màn hình reset mật khẩu</t>
   </si>
   <si>
@@ -650,28 +641,49 @@
     <t>Trường hợp username không tồn tại hoặc bị khoá</t>
   </si>
   <si>
-    <t>"Tài khoản không tồn tại hoặc đã bị khoá"</t>
-  </si>
-  <si>
     <t>Trường hợp sai mật khẩu</t>
-  </si>
-  <si>
-    <t>"Mật khẩu sai"</t>
-  </si>
-  <si>
-    <t>username.values</t>
-  </si>
-  <si>
-    <t>[Vùng nhập].values</t>
-  </si>
-  <si>
-    <t>password.values</t>
   </si>
   <si>
     <t>Sai mật khẩu</t>
   </si>
   <si>
     <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>messages.username.required</t>
+  </si>
+  <si>
+    <t>messages.username.wrong</t>
+  </si>
+  <si>
+    <t>messages.password.required</t>
+  </si>
+  <si>
+    <t>messages.password.wrong</t>
+  </si>
+  <si>
+    <t>messages.common.loginSuccess</t>
+  </si>
+  <si>
+    <t>messages.common.loginFail</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>[vùng nhập].username</t>
+  </si>
+  <si>
+    <t>[vùng  nhập].password</t>
+  </si>
+  <si>
+    <t>[Vùng nhập].username</t>
+  </si>
+  <si>
+    <t>[Vùng nhập].password</t>
   </si>
 </sst>
 </file>
@@ -3879,7 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:C52"/>
     </sheetView>
   </sheetViews>
@@ -5765,7 +5777,7 @@
       <c r="G49" s="270"/>
       <c r="H49" s="271"/>
       <c r="I49" s="313" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J49" s="314"/>
       <c r="K49" s="314"/>
@@ -11763,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C6685B-62EC-4227-B2D8-77684AA3F3E7}">
   <dimension ref="A1:BJ174"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="AM152" sqref="AM152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -13036,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" s="75"/>
       <c r="F49" s="75"/>
@@ -13503,7 +13515,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="125"/>
       <c r="F58" s="125"/>
@@ -15046,7 +15058,7 @@
     <row r="91" spans="1:49" ht="13.5" customHeight="1">
       <c r="A91" s="3"/>
       <c r="D91" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -16371,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G131" s="115"/>
       <c r="H131" s="115"/>
@@ -16381,7 +16393,7 @@
       <c r="L131" s="115"/>
       <c r="M131" s="116"/>
       <c r="N131" s="115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O131" s="115"/>
       <c r="P131" s="115"/>
@@ -16399,7 +16411,7 @@
       <c r="AB131" s="115"/>
       <c r="AC131" s="115"/>
       <c r="AD131" s="114" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AE131" s="115"/>
       <c r="AF131" s="115"/>
@@ -16409,7 +16421,7 @@
       <c r="AJ131" s="115"/>
       <c r="AK131" s="115"/>
       <c r="AL131" s="114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM131" s="115"/>
       <c r="AN131" s="137"/>
@@ -16440,7 +16452,7 @@
       <c r="L132" s="128"/>
       <c r="M132" s="129"/>
       <c r="N132" s="128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O132" s="128"/>
       <c r="P132" s="128"/>
@@ -16458,7 +16470,7 @@
       <c r="AB132" s="128"/>
       <c r="AC132" s="128"/>
       <c r="AD132" s="127" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="AE132" s="140"/>
       <c r="AF132" s="128"/>
@@ -16468,7 +16480,7 @@
       <c r="AJ132" s="128"/>
       <c r="AK132" s="128"/>
       <c r="AL132" s="127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM132" s="128"/>
       <c r="AN132" s="129"/>
@@ -16667,7 +16679,7 @@
       <c r="AJ136" s="115"/>
       <c r="AK136" s="115"/>
       <c r="AL136" s="114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM136" s="115"/>
       <c r="AN136" s="116"/>
@@ -16698,7 +16710,7 @@
       <c r="L137" s="120"/>
       <c r="M137" s="120"/>
       <c r="N137" s="119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O137" s="120"/>
       <c r="P137" s="120"/>
@@ -16724,7 +16736,7 @@
       <c r="AJ137" s="120"/>
       <c r="AK137" s="120"/>
       <c r="AL137" s="119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM137" s="120"/>
       <c r="AN137" s="121"/>
@@ -16745,7 +16757,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="128" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G138" s="128"/>
       <c r="H138" s="128"/>
@@ -16755,7 +16767,7 @@
       <c r="L138" s="128"/>
       <c r="M138" s="128"/>
       <c r="N138" s="127" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O138" s="128"/>
       <c r="P138" s="128"/>
@@ -16781,7 +16793,7 @@
       <c r="AJ138" s="128"/>
       <c r="AK138" s="128"/>
       <c r="AL138" s="127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM138" s="128"/>
       <c r="AN138" s="129"/>
@@ -16948,7 +16960,7 @@
     <row r="142" spans="1:49" ht="13.5" customHeight="1">
       <c r="A142" s="3"/>
       <c r="D142" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E142" s="132"/>
       <c r="F142" s="5"/>
@@ -16999,7 +17011,7 @@
     <row r="143" spans="1:49" ht="13.5" customHeight="1">
       <c r="A143" s="3"/>
       <c r="D143" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E143" s="132"/>
       <c r="F143" s="5"/>
@@ -17051,7 +17063,7 @@
       <c r="A144" s="3"/>
       <c r="D144" s="5"/>
       <c r="E144" s="144" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -17115,7 +17127,7 @@
       <c r="L145" s="147"/>
       <c r="M145" s="147"/>
       <c r="N145" s="146" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O145" s="147"/>
       <c r="P145" s="147"/>
@@ -17139,7 +17151,7 @@
       <c r="AH145" s="148"/>
       <c r="AI145" s="148"/>
       <c r="AJ145" s="146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK145" s="148"/>
       <c r="AL145" s="148"/>
@@ -17162,7 +17174,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="151" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G146" s="152"/>
       <c r="H146" s="152"/>
@@ -17172,7 +17184,7 @@
       <c r="L146" s="153"/>
       <c r="M146" s="154"/>
       <c r="N146" s="155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O146" s="152"/>
       <c r="P146" s="152"/>
@@ -17196,7 +17208,7 @@
       <c r="AH146" s="156"/>
       <c r="AI146" s="157"/>
       <c r="AJ146" s="158" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK146" s="159"/>
       <c r="AL146" s="159"/>
@@ -17230,7 +17242,7 @@
       <c r="L147" s="165"/>
       <c r="M147" s="166"/>
       <c r="N147" s="163" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O147" s="164"/>
       <c r="P147" s="164"/>
@@ -17254,7 +17266,7 @@
       <c r="AH147" s="167"/>
       <c r="AI147" s="168"/>
       <c r="AJ147" s="169" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AK147" s="170"/>
       <c r="AL147" s="170"/>
@@ -17278,7 +17290,7 @@
         <v>3</v>
       </c>
       <c r="F148" s="163" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G148" s="164"/>
       <c r="H148" s="164"/>
@@ -17288,7 +17300,7 @@
       <c r="L148" s="165"/>
       <c r="M148" s="166"/>
       <c r="N148" s="163" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O148" s="164"/>
       <c r="P148" s="164"/>
@@ -17312,7 +17324,7 @@
       <c r="AH148" s="167"/>
       <c r="AI148" s="168"/>
       <c r="AJ148" s="169" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK148" s="170"/>
       <c r="AL148" s="170"/>
@@ -17346,7 +17358,7 @@
       <c r="L149" s="175"/>
       <c r="M149" s="176"/>
       <c r="N149" s="347" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O149" s="348"/>
       <c r="P149" s="348"/>
@@ -17370,7 +17382,7 @@
       <c r="AH149" s="348"/>
       <c r="AI149" s="349"/>
       <c r="AJ149" s="177" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK149" s="178"/>
       <c r="AL149" s="178"/>
@@ -17548,7 +17560,7 @@
     <row r="153" spans="1:62" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E153" s="181"/>
       <c r="F153" s="182"/>
@@ -17600,7 +17612,7 @@
       <c r="A154" s="3"/>
       <c r="D154" s="5"/>
       <c r="E154" s="351" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F154" s="352"/>
       <c r="G154" s="352"/>
@@ -17609,7 +17621,7 @@
       <c r="J154" s="352"/>
       <c r="K154" s="353"/>
       <c r="L154" s="354" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M154" s="355"/>
       <c r="N154" s="355"/>
@@ -17653,7 +17665,7 @@
       <c r="A155" s="3"/>
       <c r="D155" s="5"/>
       <c r="E155" s="357" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F155" s="358"/>
       <c r="G155" s="358"/>
@@ -17664,7 +17676,7 @@
       <c r="L155" s="184"/>
       <c r="M155" s="153"/>
       <c r="N155" s="153" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O155" s="153"/>
       <c r="P155" s="153"/>
@@ -17677,10 +17689,10 @@
       <c r="W155" s="156"/>
       <c r="X155" s="156"/>
       <c r="Y155" s="156" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z155" s="156" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AA155" s="156"/>
       <c r="AB155" s="156"/>
@@ -17719,7 +17731,7 @@
       <c r="L156" s="185"/>
       <c r="M156" s="175"/>
       <c r="N156" s="175" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O156" s="175"/>
       <c r="P156" s="175"/>
@@ -17732,10 +17744,10 @@
       <c r="W156" s="186"/>
       <c r="X156" s="186"/>
       <c r="Y156" s="186" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z156" s="186" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AA156" s="186"/>
       <c r="AB156" s="186"/>
@@ -18010,13 +18022,13 @@
       <c r="A162" s="3"/>
       <c r="D162" s="144"/>
       <c r="E162" s="189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F162" s="190"/>
       <c r="G162" s="190"/>
       <c r="H162" s="191"/>
       <c r="I162" s="351" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J162" s="352"/>
       <c r="K162" s="352"/>
@@ -18045,7 +18057,7 @@
       <c r="AH162" s="352"/>
       <c r="AI162" s="353"/>
       <c r="AJ162" s="351" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK162" s="352"/>
       <c r="AL162" s="352"/>
@@ -18065,13 +18077,13 @@
       <c r="A163" s="3"/>
       <c r="D163" s="144"/>
       <c r="E163" s="341" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F163" s="342"/>
       <c r="G163" s="342"/>
       <c r="H163" s="343"/>
       <c r="I163" s="192" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J163" s="193"/>
       <c r="K163" s="193"/>
@@ -18100,7 +18112,7 @@
       <c r="AH163" s="193"/>
       <c r="AI163" s="195"/>
       <c r="AJ163" s="158" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="AK163" s="193"/>
       <c r="AL163" s="193"/>
@@ -18120,13 +18132,13 @@
       <c r="A164" s="3"/>
       <c r="D164" s="144"/>
       <c r="E164" s="344" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F164" s="345"/>
       <c r="G164" s="345"/>
       <c r="H164" s="346"/>
       <c r="I164" s="196" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J164" s="197"/>
       <c r="K164" s="197"/>
@@ -18154,8 +18166,8 @@
       <c r="AG164" s="197"/>
       <c r="AH164" s="197"/>
       <c r="AI164" s="199"/>
-      <c r="AJ164" s="200">
-        <v>403</v>
+      <c r="AJ164" s="200" t="s">
+        <v>127</v>
       </c>
       <c r="AK164" s="197"/>
       <c r="AL164" s="197"/>
@@ -18275,7 +18287,7 @@
     <row r="167" spans="1:50" ht="13.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="D167" s="144" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E167" s="143"/>
       <c r="F167" s="143"/>
@@ -18378,7 +18390,7 @@
     <row r="169" spans="1:50" ht="13.5" customHeight="1">
       <c r="A169" s="3"/>
       <c r="D169" s="144" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E169" s="143"/>
       <c r="F169" s="143"/>
@@ -18429,7 +18441,7 @@
     <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="D170" s="144" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E170" s="143"/>
       <c r="F170" s="143"/>
@@ -18668,14 +18680,11 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="AM123:AW123"/>
     <mergeCell ref="AY149:BJ149"/>
     <mergeCell ref="E154:K154"/>
     <mergeCell ref="L154:AU154"/>
     <mergeCell ref="E155:K156"/>
-    <mergeCell ref="I162:AI162"/>
-    <mergeCell ref="AJ162:AT162"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AM121:AN121"/>
     <mergeCell ref="E163:H163"/>
     <mergeCell ref="E164:H164"/>
     <mergeCell ref="N149:AI149"/>
@@ -18687,7 +18696,8 @@
     <mergeCell ref="V123:Z123"/>
     <mergeCell ref="AA123:AG123"/>
     <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="I162:AI162"/>
+    <mergeCell ref="AJ162:AT162"/>
     <mergeCell ref="AO81:AQ81"/>
     <mergeCell ref="AR81:AS81"/>
     <mergeCell ref="AT81:AW81"/>
@@ -18703,6 +18713,8 @@
     <mergeCell ref="AM122:AN122"/>
     <mergeCell ref="AO122:AQ122"/>
     <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AM121:AN121"/>
     <mergeCell ref="AT42:AW42"/>
     <mergeCell ref="AM41:AN41"/>
     <mergeCell ref="A81:I83"/>
